--- a/dataset/国际留学生比例_10.xlsx
+++ b/dataset/国际留学生比例_10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>country</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Canada</t>
   </si>
   <si>
-    <t>South Africa</t>
-  </si>
-  <si>
     <t>India</t>
   </si>
 </sst>
@@ -42,10 +39,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -65,22 +62,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -94,23 +83,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,15 +99,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,7 +109,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,21 +123,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -177,17 +131,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,7 +192,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,175 +214,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,8 +426,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,34 +470,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,26 +506,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,10 +526,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -541,133 +538,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1025,13 +1022,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="$A6:$XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="5" width="11.8888888888889" style="1" customWidth="1"/>
@@ -1199,31 +1196,23 @@
         <v>18.2615763546798</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="D6" s="1">
         <v>0.103</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E6" s="1">
         <v>0.099</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F6" s="1">
         <v>0.122</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J6" s="1">
         <v>0.131341008057851</v>
       </c>
     </row>

--- a/dataset/国际留学生比例_10.xlsx
+++ b/dataset/国际留学生比例_10.xlsx
@@ -14,24 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>country</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
   </si>
   <si>
     <t>United States</t>
   </si>
   <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
     <t>Australia</t>
   </si>
   <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>India</t>
+    <t>Mexico</t>
   </si>
 </sst>
 </file>
@@ -40,9 +37,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -62,14 +59,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -83,43 +171,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -131,75 +194,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,25 +211,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,157 +379,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,8 +423,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -443,11 +440,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,53 +512,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,10 +523,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -538,133 +535,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1022,13 +1019,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="$A6:$XFD6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="5" width="11.8888888888889" style="1" customWidth="1"/>
@@ -1070,72 +1067,72 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>3.4</v>
+        <v>15.7</v>
       </c>
       <c r="D2" s="1">
-        <v>3.4</v>
+        <v>16.8</v>
       </c>
       <c r="E2" s="1">
-        <v>3.5</v>
+        <v>17.1</v>
       </c>
       <c r="F2" s="1">
-        <v>3.85660377358491</v>
+        <v>18.9763097259513</v>
       </c>
       <c r="G2" s="1">
-        <v>4.29230135670908</v>
+        <v>19.8654985370849</v>
       </c>
       <c r="H2" s="1">
-        <v>4.81326092322883</v>
+        <v>21.4655849140302</v>
       </c>
       <c r="I2" s="1">
-        <v>5.15119917094355</v>
+        <v>21.1233852533092</v>
       </c>
       <c r="J2" s="1">
-        <v>5.34467178597969</v>
+        <v>21.1438602858174</v>
       </c>
       <c r="K2" s="1">
-        <v>5.52060914729464</v>
+        <v>21.035144406881</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>15.7</v>
+        <v>3.4</v>
       </c>
       <c r="D3" s="1">
-        <v>16.8</v>
+        <v>3.4</v>
       </c>
       <c r="E3" s="1">
-        <v>17.1</v>
+        <v>3.5</v>
       </c>
       <c r="F3" s="1">
-        <v>18.9763097259513</v>
+        <v>3.85660377358491</v>
       </c>
       <c r="G3" s="1">
-        <v>19.8654985370849</v>
+        <v>4.29230135670908</v>
       </c>
       <c r="H3" s="1">
-        <v>21.4655849140302</v>
+        <v>4.81326092322883</v>
       </c>
       <c r="I3" s="1">
-        <v>21.1233852533092</v>
+        <v>5.15119917094355</v>
       </c>
       <c r="J3" s="1">
-        <v>21.1438602858174</v>
+        <v>5.34467178597969</v>
       </c>
       <c r="K3" s="1">
-        <v>21.035144406881</v>
+        <v>5.52060914729464</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1173,47 +1170,18 @@
         <v>31.9679430863419</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="1">
-        <v>11.9043682997696</v>
-      </c>
-      <c r="H5" s="1">
-        <v>13.2789736609149</v>
-      </c>
-      <c r="I5" s="1">
-        <v>12.8834253979089</v>
+      <c r="F5" s="1">
+        <v>0.2</v>
       </c>
       <c r="J5" s="1">
-        <v>15.0627049022771</v>
-      </c>
-      <c r="K5" s="1">
-        <v>18.2615763546798</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.103</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.099</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.122</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.131341008057851</v>
+        <v>0.461</v>
       </c>
     </row>
   </sheetData>
